--- a/results/ipop-results-ntries30-searchspace0.1.xlsx
+++ b/results/ipop-results-ntries30-searchspace0.1.xlsx
@@ -34,40 +34,40 @@
     <t>search_space</t>
   </si>
   <si>
-    <t>100_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>10_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>5_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>10_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>5_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>2_features_0.01_error.csv</t>
-  </si>
-  <si>
-    <t>2_features_0.1_error.csv</t>
-  </si>
-  <si>
-    <t>10_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>100_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>5_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>2_features_0.5_error.csv</t>
-  </si>
-  <si>
-    <t>100_features_0.01_error.csv</t>
+    <t>10_features_0.01_error.csv.csv</t>
+  </si>
+  <si>
+    <t>5_features_0.01_error.csv.csv</t>
+  </si>
+  <si>
+    <t>10_features_0.5_error.csv.csv</t>
+  </si>
+  <si>
+    <t>10_features_0.1_error.csv.csv</t>
+  </si>
+  <si>
+    <t>100_features_0.1_error.csv.csv</t>
+  </si>
+  <si>
+    <t>100_features_0.5_error.csv.csv</t>
+  </si>
+  <si>
+    <t>5_features_0.5_error.csv.csv</t>
+  </si>
+  <si>
+    <t>100_features_0.01_error.csv.csv</t>
+  </si>
+  <si>
+    <t>5_features_0.1_error.csv.csv</t>
+  </si>
+  <si>
+    <t>2_features_0.01_error.csv.csv</t>
+  </si>
+  <si>
+    <t>2_features_0.1_error.csv.csv</t>
+  </si>
+  <si>
+    <t>2_features_0.5_error.csv.csv</t>
   </si>
   <si>
     <t>credit-g_metadata.csv</t>
@@ -471,10 +471,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>62161.79081696706</v>
+        <v>8018.561476900577</v>
       </c>
       <c r="D2">
-        <v>3.079049825668335</v>
+        <v>0.514653205871582</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -494,10 +494,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>82774.95790006864</v>
+        <v>7690.890741380279</v>
       </c>
       <c r="D3">
-        <v>0.27939772605896</v>
+        <v>0.4887681007385254</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
@@ -517,10 +517,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>693.7664890780485</v>
+        <v>9117.312578123006</v>
       </c>
       <c r="D4">
-        <v>0.2406470775604248</v>
+        <v>0.4863190650939941</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
@@ -540,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>943.827370048328</v>
+        <v>8209.116501873426</v>
       </c>
       <c r="D5">
-        <v>0.2713510990142822</v>
+        <v>0.4856970310211182</v>
       </c>
       <c r="E5" t="s">
         <v>21</v>
@@ -563,10 +563,10 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>622.5425752206455</v>
+        <v>7869.405476958398</v>
       </c>
       <c r="D6">
-        <v>0.2442212104797363</v>
+        <v>0.48616623878479</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -586,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>1396.25045232009</v>
+        <v>8937.483782137559</v>
       </c>
       <c r="D7">
-        <v>0.2216458320617676</v>
+        <v>0.4949898719787598</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>901.8158216268971</v>
+        <v>9292.036808250652</v>
       </c>
       <c r="D8">
-        <v>0.2173812389373779</v>
+        <v>0.4907760620117188</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>972.337177106094</v>
+        <v>7914.516425797325</v>
       </c>
       <c r="D9">
-        <v>0.2707281112670898</v>
+        <v>0.4881248474121094</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -655,10 +655,10 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>49834.09282538211</v>
+        <v>8310.544952649219</v>
       </c>
       <c r="D10">
-        <v>3.075573921203613</v>
+        <v>0.4892830848693848</v>
       </c>
       <c r="E10" t="s">
         <v>21</v>
@@ -678,10 +678,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>616.7101403445699</v>
+        <v>7531.535034892659</v>
       </c>
       <c r="D11">
-        <v>0.2426538467407227</v>
+        <v>0.5027139186859131</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -701,10 +701,10 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>1287.377986220296</v>
+        <v>8603.263354011624</v>
       </c>
       <c r="D12">
-        <v>0.2185409069061279</v>
+        <v>0.5014710426330566</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -724,10 +724,10 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>63136.11438377195</v>
+        <v>9903.877325747086</v>
       </c>
       <c r="D13">
-        <v>3.448745965957642</v>
+        <v>0.4950370788574219</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -750,7 +750,7 @@
         <v>35527.63026623094</v>
       </c>
       <c r="D14">
-        <v>0.2916069030761719</v>
+        <v>0.2771470546722412</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
@@ -773,7 +773,7 @@
         <v>33301.72554730533</v>
       </c>
       <c r="D15">
-        <v>8.548840045928955</v>
+        <v>8.745537042617798</v>
       </c>
       <c r="E15" t="s">
         <v>21</v>
@@ -796,7 +796,7 @@
         <v>65393.68179879161</v>
       </c>
       <c r="D16">
-        <v>0.3040978908538818</v>
+        <v>0.3014411926269531</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
